--- a/output/Course_links.xlsx
+++ b/output/Course_links.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Pro-Java-Programming-Language</t>
+          <t>https://ineuron.ai//course/Aptitude-Live-Class</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Pro-Aptitude---C++</t>
+          <t>https://ineuron.ai//course/Pro-Max-Interview-Preparation-Edition-2</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Reasoning-Live-Class</t>
+          <t>https://ineuron.ai//course/Pro-Aptitude---C-Language</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Pro-Database-Management-Systems</t>
+          <t>https://ineuron.ai//course/Pro-C-Programming-Language</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Pro-Max-Interview-Preparation-Edition-1</t>
+          <t>https://ineuron.ai//course/Pro-C++-Programming-Language</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Pro-Max-Interview-Preparation-Edition-2</t>
+          <t>https://ineuron.ai//course/Pro-Aptitude---DBMS</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Pro-Aptitude---Python</t>
+          <t>https://ineuron.ai//course/Aptitude-Test</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Pro-JavaScript-Programming-Language</t>
+          <t>https://ineuron.ai//course/Pro-Computer-Networking</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Aptitude-Live-Class</t>
+          <t>https://ineuron.ai//course/Reasoning-Live-Class</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Pro-Aptitude---DBMS</t>
+          <t>https://ineuron.ai//course/Pro-Python-Programming-Language</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Aptitude-Test</t>
+          <t>https://ineuron.ai//course/Pro-Aptitude---Data-Structures-and-Algorithms</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Pro-Aptitude---Data-Structures-and-Algorithms</t>
+          <t>https://ineuron.ai//course/Pro-Data-Structure-and-Algorithms</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Python-Coding-Interview-Preparation</t>
+          <t>https://ineuron.ai//course/Aptitude-Test-Series</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Pro-Max-Interview-Preparation-Edition-3</t>
+          <t>https://ineuron.ai//course/Pro-Java-Programming-Language</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Pro-Python-Programming-Language</t>
+          <t>https://ineuron.ai//course/Python-Coding-Interview-Preparation</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Pro-C++-Programming-Language</t>
+          <t>https://ineuron.ai//course/Pro-Database-Management-Systems</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Pro-Aptitude---Operating-Systems</t>
+          <t>https://ineuron.ai//course/Pro-Max-Interview-Preparation-Edition-3</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Pro-Aptitude---C-Language</t>
+          <t>https://ineuron.ai//course/Pro-Aptitude---Python</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Aptitude-Test-Series</t>
+          <t>https://ineuron.ai//course/Pro-Aptitude---Operating-Systems</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Pro-C-Programming-Language</t>
+          <t>https://ineuron.ai//course/Pro-JavaScript-Programming-Language</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Pro-Computer-Networking</t>
+          <t>https://ineuron.ai//course/Pro-Aptitude---C++</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Pro-Data-Structure-and-Algorithms</t>
+          <t>https://ineuron.ai//course/Pro-Max-Interview-Preparation-Edition-1</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/Spark-AR-Live-Class</t>
+          <t>https://ineuron.ai//course/SPARK-Augmented-Reality-Live-Class</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,5179 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://ineuron.ai//course/SPARK-Augmented-Reality-Live-Class</t>
+          <t>https://ineuron.ai//course/Spark-AR-Live-Class</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Big-Data-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Fivetran</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Build-ETL-Data-Pipeline-on-AWS-EMR-Cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Informatica-Cloud-(IICS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Engineering-with-Google-Cloud</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Build-a-Data-Pipeline-MYSQL-KAFKA-S3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Airflow</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Job-Guaranteed-Big-Data-Bootcamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/AWS-Big-Data-Analytics</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Apache-Druid</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Build-a-Data-Pipeline-S3-and-Redshift</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Snowflake-Advanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/End-to-End-Big-Data-Projects-with-Deployment</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/DBT</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Informatica-Powercenter</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Snowflake-Beginners</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Big-Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Big-Data-Masters-Tech-Neuron</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Hive-Project-to-build-a-data-warehouse-for-e-Commerce</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Big-Data-Foundations</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Build-Modern-ETL-Data-Pipeline-using-Informatica-cloud</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Big-Data-Masters</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Warehouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Big-Data-Job-preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Big-Data-Masters-Crash-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/AWS-Data-Engineering</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Talend</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Azure-Data-Engineering</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Job-Guaranteed-BigData-Bootcamp-2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Create-A-Data-Pipeline-based-on-Messaging-Using-PySpark-and-Airflow</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BIG DATA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Apache-Atlas</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BLOCKCHAIN</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Solidity</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BLOCKCHAIN</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Blockchain</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BLOCKCHAIN</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Blockchain-Foundations</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BLOCKCHAIN</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Full-Stack-Blockchain-Development-Tech-Neuron</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BLOCKCHAIN</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Solidity-Live-Class</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BLOCKCHAIN</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Blockchain-for-Beginners</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BLOCKCHAIN</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Full-Stack-Blockchain-Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>BLOCKCHAIN</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Blockchain-Developer-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/AWS-Architect-for-Real-World</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/AWS-Crash-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Azure-Data-scientist-Associate-DP100</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/AWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Azure-Data-Factory</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Azure-Fundamentals</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/GCP-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Google-Cloud-Platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Azure-Databricks</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/DP-900-Microsoft-Azure-Data-Fundamentals</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/AWS-Architect-for-the-Real-World</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/AWS-Interview-Preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Azure-Synapse</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/AWS-Serverless</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Azure-Certification-Road-Map</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/GCP-Interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/AWS-Cloud-Master</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>CYBER SECURITY</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Ethical-Hacking-&amp;-Penetration-Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>CYBER SECURITY</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Cyber-Security-Masters</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CYBER SECURITY</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Cyber-Security-Foundations</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CYBER SECURITY</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Cyber-Security-Masters-Tech-Neuron</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CYBER SECURITY</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Pre-Ethical-Hacking-Community-Class</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CYBER SECURITY</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Certified-Ethical-Hacker-Bootcamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Business-Analytics</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Qlik-Sense</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Alteryx</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Stored-Procedures-in-SQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Analytics-Bootcamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Tableau-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Tibco-Spotfire</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/AWS-QuickSight</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/SQL-Foundations</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/MSBI</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Trifacta</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Business-Analytics-Masters-with-3-month-Internship</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Tableau-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Full-Stack-Data-Analytics-2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/DOMO-BI</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Power-BI-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/PowerBI-Foundation</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Tableau-Foundation</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Tableau-Job-Preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Tableau</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Tibco-Business-Works</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Power-BI-Foundations</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Excel-Job-Preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Business-Analytics-Crash-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Power-Automate</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/SQL-Job-Preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/SQL-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Alteryx-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Power-BI-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Advance-Excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Power-BI</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/SQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Full-Stack-Data-Analytics-Tech-Neuron</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Microsoft-PowerApps</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>DATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Teradata</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Building-Chatbot-using-Google-DialogFlow</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/GCP-Machine-Learning-Certification</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/ML-and-DL-Foundations</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Auto-Sklearn-and-Auto-TimeSeries</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/End-to-End-Object-Detection</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/NLP-Interview-Questions</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/OpenCV-Job-Preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Stats-for-Data-Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Amazon-Lex</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Machine-Learning-Foundation</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Dask</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Live-Virtual-Interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Abstractive-Text-Summarization</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Mega-Community</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Industry-Ready-Data-Science-Projects-Tech-Neuron</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/MLFlow-Production-Server-Setup</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/AIOPS-Crash-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/AIOps</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/MLflow</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Full-Stack-Data-Science-Feb'21-Tech-Neuron</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/MLOPS-Live-Class</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Machine-Learning-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Machine-Learning-And-Deep-Learning-Masters</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Azure-Luis</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Machine-Learning-Interview-Preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/MLDL</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Reinforcement-Learning</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/AWS-Sagemaker</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Full-Stack-Data-Science-BootCamp-2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Machine-Learning</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/RASA</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/JAX</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Machine-Learning-and-Data-Science-Bootcamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Full-Stack-Data-Science-Nov'21-Batch</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Full-Stack-Data-Science-Nov'21-Tech-Neuron</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Face-Swap-Application</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Machine-Learning-Masters</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Machine-Learning-Live-Class</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Recommender-System</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Azure-Machine-Learning-DP-100</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Chatbot-using-Rasa-NLU</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Python-Crash-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/OpenCV-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Amazon-Lex-Chatbot</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/The-Ultimate-Guide-To-OpenAI-GPT-3-&amp;-Fine-Tune-with-Custom-Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Computer-Vision</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Language-Identification</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Science-Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/NLP-Crash-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Python-advance-with-projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/ParlAI-Chatbot</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Full-Stack-Data-Science-Bootcamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Yolo-X-and-Yolo-R</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Advance-Computer-Vision</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Full-Stack-Web-Development-with-Python-in-Hindi-Tech-Neuron</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Computer-Vision-Crash-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Stats-for-Beginners</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Statistics-Live-Class</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Machine-Learning-in-R</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/ML-Interview-Prepration</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Machine-Learning-Bootcamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Deep-Learning-Foundations</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Science-Interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Google-Dialogflow</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/AIOps-Interview-Questions</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Finance-Complaint</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Deep-Learning-With-Computer-Vision-and-Advanced-NLP</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Python-Crash-Course-by-Hitesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Mega-Project-Foundation</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Industry-Safety-Detection-using-YOLO-v7</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Science-Industry-Ready-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Shipment-Price-Prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/NLP-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/ONNX</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Python-for-Beginner</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Marketing-Mix-Modelling</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Explainable-AI</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/PyTorch-Basics</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Machine-Learning-Bootcamp-Tech-Neuron</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Chatbot-using-Azure-Luis</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Science-Masters</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Python3-Scratch-To-Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Science-Interview-Tech-Neuron</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/OpenCV</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Graph-ML</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Sign-Language-Detection</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Full-Stack-Data-Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Statistics</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Arduino-Live-Class</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Computer-Vision-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Sensor-Fault-Prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Advanced-Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/DSAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/30-days-Fast-Track-Data-Science-Interview-Preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Deep-Authenticator</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Streamlit</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/AIOPS-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Deep-Learning-Foundation</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/AI-Operations</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/House-Price-Prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Introduction-to-AIOps</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/NLP-Foundations</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Mathematics-for-Machine-Learning</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Artificial-Neural-Network</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Full-Stack-Data-Science-Feb'21-Batch</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/DLCV-with-NLP</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/AIOPS-Live-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Text-To-Speech</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Deep-Learning-ANN</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Programming-in-Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/AIOps-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>DATA SCIENCE</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Chatbot-Using-Google-Dialogflow</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/DSA-in-C++,-Competitive-Programming-&amp;-IOT-in-Hindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Crack-the-Tech-Interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/DSA-with-Java</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/DSA-for-FAANG-preparation-with-Python-and-JavaScript-Tech-Neuron</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Structure-and-Algorithm-Job-Preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Structures-and-Algorithms-Live-Class</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Interview-ready-DSA-course-in-Python-Level-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Mastering-DSA-with-Java</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Structure-and-Algorithm-Foundation</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/DSA-with-C++</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Structure-and-Algorithm-Interview-Preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Interview-ready-DSA-course-in-Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Mastering-DSA-with-Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/DSA-with-Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Complete-Interview-Preparation-For-Data-Structure-and-Algorithm-in-Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Structure-and-Algorithm-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/DSA-for-FAANG-preparation-with-Python-and-JavaScript</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Structures-and-Algorithms-using-python</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Structure-and-Algorithms-with-competitive-programming</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Mastering-DSA-with-C++</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>DATA STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Crack-the-Tech-Interviews</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>DATABASE</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/MySQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>DATABASE</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/MS-SQL-Server-and-T-SQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>DATABASE</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/SQL-Server-Integration-Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>DATABASE</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/PL-SQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>DATABASE</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/MongoDB-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>DATABASE</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/PostgreSQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>DEVOPS</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Be-A-DevOps-Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>DEVOPS</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Jenkins</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>DEVOPS</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Docker-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>DEVOPS</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>DEVOPS</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/ELK-Stack</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>DEVOPS</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Ansible</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>DEVOPS</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/GIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>DEVOPS</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Linux</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>DEVOPS</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/DevOps-Master</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>DEVOPS</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>DEVOPS</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Linux-Live-Class</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>DEVOPS</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Git-and-GitHub</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>DEVOPS</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/DevOps-Foundation</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>DIGITAL MARKETING</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Digital-Marketing-Foundation</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>DIGITAL MARKETING</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Youtube-Mastery-Course-in-Hindi-Tech-Neuron</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>DIGITAL MARKETING</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Digital-Marketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>DIGITAL MARKETING</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Digital-Marketing-and-Youtube-Niche-Foundations</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>DIGITAL MARKETING</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Email-Marketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>DIGITAL MARKETING</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Digital-Marketing-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>DIGITAL MARKETING</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Digital-Marketing-Bootcamp-in-Hindi-Tech-Neuron</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>IOT</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/IOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Web-Designing-using-Wordpress</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Fundamentals-of-Electronics</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-10-Physics</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-7th-Biology</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-9th-Physics</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Graphics-Design-with-PhotoShop</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Fundamentals-of-Game-Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Raspberry-Pi</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Drone-Live-Class</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Getting-started-with-Cloud</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Image-Processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-10th-Biology</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Interactive-Visualization-using-Seaborn</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Basics-of-Computer-Education</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-7th-Physics</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Advanced-Web-Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-9th-Chemistry</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Numerical-Computation-with-Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-8th-Chemistry</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-8th-Biology</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Vedic-Math</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-6th-Physics</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Manipulation-using-Pandas</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/UI-Designing-using-Figma</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/OpenCV-using-Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Game-Development-using-Unity</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Robotics</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-6th-Math</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Scratch-Programming-for-kids</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Foundations-of-English-Language</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Natural-Language-Processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-10-Mathematics</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Deep-Learning-for-Kids</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-10-Chemistry</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-9th-Biology</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Character-Recognition-using-Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-9th-Math</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Mathematics-using-Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Statistics-using-Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-8th-Math</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Video-editing-with-Adobe-Premiere-Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Processing-using-Dask</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Analysis-Using-Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-10-Biology</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-8th-Physics</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Career-Counselling</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-7th-Math</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Tech-Awareness</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-10th-Physics</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-6th-Biology</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-6th-Chemistry</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Class-10th-Chemistry</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Fundamentals-of-Web-Designing</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Artificial-Intelligence-for-Kids</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Fundamentals-of-Database</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Data-Visualization-using-Matplotlib</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>MOBILE DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Android</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>MOBILE DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Complete-React-Native-Mobile-App-Developer</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>MOBILE DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/App-Building-Using-Android</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>MOBILE DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Android-P-with-Machine-Learning-Apps</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>MOBILE DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Android-Technical-Interview-Preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>MOBILE DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Android-Chatapp-with-FireBase</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>MOBILE DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/React-Native</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>MOBILE DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/DART</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>MOBILE DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Dart-Language</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>MOBILE DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Android-Programming-with-Machine-Learning-Apps</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>MOBILE DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Dart-Programming</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>MOBILE DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Complete-Flutter-Course---iOS-Android-Apps</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>MOBILE DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Complete-iOS-16-Developer-with-Swift-and-8-Apps</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>MOBILE DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Flutter</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>MOBILE DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Android-Job-Preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>MOBILE DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Kotlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>MOBILE DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Android-Chat-app-with-FireBase</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>MOBILE DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Complete-iOS-16-Developer-with-SwiftUI-and-8-Apps</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Java-Community-Class</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/A-Job-Ready-Bootcamp-in--C++,-DSA-and-IOT-Tech-Neuron</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Full-Stack-Java-Developer</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Enterprise-Java-with-Spring-Boot-Tech-Neuron</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/C-language-for-Absolute-Beginners</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Julia-Programming</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/R-Programming-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/C++-Coding-Interview-Preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/SAS-Programming</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Java-Coding-Interview-Preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Golang</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Java-Bootcamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/APIGEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/C-Coding-Interview-Preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Java-Full-Stack-Developer-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Java-Foundations</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Scala</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/C-Sharp-Programming</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/C-Programming</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/R-Programming</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/C++-Job-Preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Mulesoft</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Enterprise-Java-with-Spring-Boot</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Bash-Scripting</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Pro-Aptitude---Java</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/R-Shiny</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Matlab-Basic-to-Advance</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/R-Programming-Job-Preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/C++-Bootcamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Spring-Boot</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Latex</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>PROGRAMMING</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/C++-Bootcamp-for-Beginners</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>RPA</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/RPA-Foundation</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>RPA</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/RPA---UiPath</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>SALESFORCE</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Salesforce-Administrator</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>SALESFORCE</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Salesforce-Developer</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>SYSTEM DESIGN</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/System-Design-with-Design-Patterns-Tech-Neuron</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>SYSTEM DESIGN</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/System-Design-Interview-Ready</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>SYSTEM DESIGN</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/System-Design</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>SYSTEM DESIGN</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/System-Design-Foundations</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>SYSTEM DESIGN</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/System-Design-with-Design-Patterns</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>TESTING</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Manual-Testing-Foundations</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>TESTING</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Web-Automation-Using-Selenium-With-Java-and-Cucumber-BDD-Tech-Neuron</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>TESTING</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Manual-Testing-Kickstart</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>TESTING</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Web-Automation-Foundations</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>TESTING</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Web-Automation-Using-Selenium-Community-Class</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>TESTING</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Job-Ready-Automation-Tester-with-JavaScript-Tech-Neuron</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/ReactJS-Crash-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Complete-Backend-development-with-Nodejs</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/HTML-and-CSS-for-Web-Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/HTML-CSS-Coding-Interview-Preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Socket-io-Crash-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/TypeScript-Crash-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/JavaScript-Fundamentals</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Complete-Angular-Developer-Bootcamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Mern-stack-job-preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Complete-ReactJs-Developer-Bootcamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Node-JS</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/HTML-and-CSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Pro-Backend-Developer</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Backend-Development-with-Django-8-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/JavaScript-Coding-Interview-Preparation</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Full-Stack-JavaScript-Bootcamp-2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Node-JS-Foundation</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Prisma-Backend-Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Vuejs</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Back-end-development-with-Django-8-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Fastify-Crash-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Django-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/NextJS-Full-stack-crash-course</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Write-quicker-HTML5-and-CSS-3;-productivity-hacks-with-emmet4</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/The-Complete-Front-End-Web-Developer-Bootcamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Build-an-Ecommerce-with-ReactJS</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Angular</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/The-Pro-Backend-Developer</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Angular-Crash-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Full-Stack-Django-and-React</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Materialize-CSS-Crash-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/VueJS-Crash-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Complete-VueJS-Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Complete-Bootstrap4---Build-5-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Full-Stack-Django-with-React</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/MERN-Stack-Beginner-to-Advance-with-Internship</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/FastAPI</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Complete-Front-End-Web-Developer-Bootcamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Stripe-with-React-and-Node-Crash-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Angular-JS-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Complete-Bootstrap---5-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/JavaScript-Marathon</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Angular-JS</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Mern-Stack-Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Complete-ReactJS-Developer-Bootcamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Graph-QL-Crash-Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/MERN-Stack-Bootcamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Django</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Publishing-Custom-Cocoapads</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Mern-Stack</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/React-JS</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPEMENT</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>https://ineuron.ai//course/Complete-Backend-Development-with-Nodejs</t>
         </is>
       </c>
     </row>
